--- a/Files/demographic_pca_revised.xlsx
+++ b/Files/demographic_pca_revised.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josem\Documents\NovaIMS\2020-2021\DataMining\DM\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD1983C-ECC4-47F8-A16B-D6D2CA042969}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AB7398-1201-41E9-ACD0-45BA7138DDE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39960" yWindow="30" windowWidth="28800" windowHeight="15435" firstSheet="13" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="population" sheetId="1" r:id="rId1"/>
@@ -1042,6 +1042,206 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B42DF5-EEDE-43EF-B820-C952B2A3DDC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="190500"/>
+          <a:ext cx="4591050" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>POP901                      Number of Persons</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>POP902                      Number of Families</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>POP903                      Number of Households</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>POP90C1                     Percent Population in Urbanized Area</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>POP90C2                     Percent Population Outside Urbanized Area</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>POP90C3                     Percent Population Inside Rural Area</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>POP90C4                     Percent Male</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>POP90C5                     Percent Female</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC0 - rural</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC1 - suburban</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC2 - highly_populated</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1187,7 +1387,2254 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98364B5-CE2B-4B89-9547-18B6B59D36C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648074" y="171449"/>
+          <a:ext cx="5057775" cy="7191375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC1                         Median Household Income in hundreds</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC2                         Median Family Income in hundreds</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC3                         Average Household Income in hundreds</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC4                         Average Family Income in hundreds</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC5                         Per Capita Income</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC6                         Percent Households w/ Income &lt; $15,000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC7                         Percent Households w/ Income $15,000 - $24,999</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC8                         Percent Households w/ Income $25,000 - $34,999</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC9                         Percent Households w/ Income $35,000 - $49,999</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC10                        Percent Households w/ Income $50,000 - $74,999</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC11                        Percent Households w/ Income $75,000 - $99,999</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC12                        Percent Households w/ Income $100,000 - $124,999</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC13                        Percent Households w/ Income $125,000 - $149,999</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC14                        Percent Households w/ Income &gt;= $150,000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC15                        Percent Families w/ Income &lt; $15,000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC16                        Percent Families w/ Income $15,000 - $24,999</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC17                        Percent Families w/ Income $25,000 - 34,999</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC18                        Percent Families w/ Income $35,000 - $49,999</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC19                        Percent Families w/ Income $50,000 - $74,999</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC20                        Percent Families w/ Income $75,000 - $99,999</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC21                        Percent Families w/ Income $100,000 - $124,999</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC22                        Percent Families w/ Income $125,000 - $149,999</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>IC23                        Percent Families w/ Income &gt;= $150,000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHAS1                       Percent Households on Social Security</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHAS2                       Percent Households on Public Assistance</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHAS3                       Percent Households w/ Interest, Rental or Dividend Income</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHAS4                       Percent Persons Below Poverty Level</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC0 - high_vs_low</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>_income</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC1 - social_disadvantage</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC2 -</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> rich (maybe drop)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC3 - drop</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A10F58-4104-4D9A-AB87-9669852F1847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="190500"/>
+          <a:ext cx="4591050" cy="2505075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MC1                         Percent Persons Move in Since 2005</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MC2                         Percent Persons in Same House in 2005</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MC3                         Percent Persons in Different State/Country in 2005</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PEC1                        Percent Working Outside State of Residence</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PEC2                        Percent Working Outside County of Residence in State</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC01</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - newcomers</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC2 - working_outside_state</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC3 - moved_state</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA3BDEC-B1FC-4B80-8B24-27E16295C95E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="190500"/>
+          <a:ext cx="4591050" cy="3609975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TPE1                        Percent Driving to Work Alone Car/Truck/Van</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TPE2                        Percent Carpooling Car/Truck/Van)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TPE3                        Percent Using Public Transportation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TPE4                        Percent Using Bus/Trolley</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TPE5                        Percent Using Railways</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TPE6                        Percent Using Taxi/Ferry</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TPE7                        Percent Using Motorcycles</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TPE8                        Percent Using Other Transportation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TPE9                        Percent Working at Home/No Transportation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TPE10                       Median Travel Time to Work in minutes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TPE11                       Mean Travel Time to Work in minutes</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TPE12                       Percent Traveling 60+ Minutes to Work</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>TPE13                       Percent Traveling 15 - 59 Minutes to Work</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>less_15</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>minutes_work</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC1 - not_driving_work</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC2 - more_60minutes_work</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4957A047-F0A9-4B95-85E1-4D84EC824D7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="190500"/>
+          <a:ext cx="4591050" cy="3057525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LFC1                        Percent Adults in Labor Force</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LFC2                        Percent Adult Males in Labor Force</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LFC3                        Percent Females in Labor Force</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LFC4                        Percent Adult Males Employed</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LFC5                        Percent Adult Females Employed</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LFC6                        Percent Mothers Employed Married and Single</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LFC7                        Percent 2 Parent Earner Families</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LFC8                        Percent Single Mother w/ Child in Labor Force</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LFC9                        Percent Single Father w/ Child in Labor Force</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>LFC10                      Percent Families w/ Child w/ no Workers</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> -  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>single_father_lf</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC1 - highly_unemployed_lf </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC2 - no_singlemom_employed_lf </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC3 - moms_employed_lf</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDC040C-FF24-4F86-82B8-EF74FC601DEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6095999" y="190500"/>
+          <a:ext cx="4867275" cy="5524500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OCC1                        Percent Professional</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OCC2                        Percent Managerial</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OCC3                        Percent Technical</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OCC4                        Percent Sales</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OCC5                        Percent Clerical/Administrative Support</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OCC6                        Percent Private Household Service Occ.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OCC7                        Percent Protective Service Occ.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OCC8                        Percent Other Service Occ.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OCC9                        Percent Farmers</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OCC10                      Percent Craftsmen, Precision, Repair</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OCC11                      Percent Operatives, Machine</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OCC12                      Percent Transportation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OCC13                      Percent Laborers, Handlers, Helpers</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ---&gt; non_physical_occupation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC1 ---&gt; administrative_occupation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC2 ---&gt; otherservices_occupation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC3 ----&gt; sales_vs_admin_occupation </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC4 ----&gt; farmer_occupation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC5 ----&gt; sales_occupation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC7 ----&gt; protective_services_occupation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C5B00A-94B6-4359-81C7-9B65BA70489E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="190500"/>
+          <a:ext cx="4591050" cy="5600700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EIC1                        Percent Employed in Agriculture</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EIC2                        Percent Employed in Mining</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EIC3                        Percent Employed in Construction</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EIC4                        Percent Employed in Manufacturing</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EIC5                        Percent Employed in Transportation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EIC6                        Percent Employed in Communications</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EIC7                        Percent Employed in Wholesale Trade</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EIC8                        Percent Employed in Retail Industry</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EIC9                        Percent Employed in Finance, Insurance, Real Estate</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EIC10                       Percent Employed in Business and Repair</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EIC11                       Percent Employed in Personnal Services</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EIC12                       Percent Employed in Entertainment and Recreation</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EIC13                       Percent Employed in Health Services</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EIC14                       Percent Employed in Educational Services</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EIC15                       Percent Employed in Other Professional Services</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EIC16                       Percent Employed in Public Administration</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC0 ----&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> employed_manufacturing</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC1 ----&gt; employed_retail </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC2 -----&gt; employed_ agriculture</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC3 -----&gt;  employed_education</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC4 -----&gt;  employed_construction </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACEABEB6-E11F-4669-933A-ECA72CC5CB65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="190500"/>
+          <a:ext cx="4591050" cy="2562225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OEDC1                       Percent Employed by Local Government</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OEDC2                       Percent Employed by State Government</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OEDC3                       Percent Employed by Federal Government</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OEDC4                       Percent Self Employed</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OEDC5                       Percent Private Profit Wage or Salaried Worker</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OEDC6                       Percent Private Non-Profit Wage or Salaried Worker</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OEDC7                       Percent Unpaid Family Workers</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC0 - not_nonprofitprivate_employer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC1 - self_employed</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - state_employer</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A2D11D6-B513-42F8-897A-B3407A8225C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="190500"/>
+          <a:ext cx="5581650" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EC1                         Median Years of School Completed by Adults 25+</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EC2                         Percent Adults 25+ Grades 0-8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EC3                         Percent Adults 25+ w/ some High School</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EC4                         Percent Adults 25+ Completed High School or Equivalency</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EC5                         Percent Adults 25+ w/ some College</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EC6                         Percent Adults 25+ w/ Associates Degree</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EC7                         Percent Adults 25+ w/ Bachelors Degree</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EC8                         Percent Adults 25+ Graduate Degree</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SEC1                        Percent Persons Enrolled in Private Schools</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SEC2                        Percent Persons Enrolled in Public Schools</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SEC3                        Percent Persons Enrolled in Preschool</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SEC4                        Percent Persons Enrolled in Elementary or High School</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SEC5                        Percent Persons in College</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC0 ----&gt;  higly_educated</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> -----&gt; good_public_education</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC2 -----&gt;  basic_education_only </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC3 -----&gt;  associate_degree</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC4 -----&gt; college</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1317,6 +3764,52 @@
             <a:t>VC4                         Percent Veterans Serving After May 1995 Only</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>PC0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> ----&gt; ww2_veterans</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>PC1 ----&gt; post1995_veterans</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>PC2 ----&gt; young_veterans</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>PC3 -----&gt; vietnam_veterans</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>PC4 -----&gt; military_active</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -1324,7 +3817,377 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F77445-BA64-4E73-A573-4574D1559445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="190500"/>
+          <a:ext cx="4591050" cy="4914900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETH1                        Percent White</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETH2                        Percent Black</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETH3                        Percent Native American</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETH4                        Percent Pacific Islander/Asian</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETH5                        Percent Hispanic</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETH6                        Percent Asian Indian</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETH7                        Percent Japanese</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETH8                        Percent Chinese</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETH9                        Percent Philipino</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETH10                       Percent Korean</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETH11                       Percent Vietnamese</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETH12                       Percent Hawaiian</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETH13                       Percent Mexican</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETH14                       Percent Puerto Rican</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETH15                       Percent Cuban</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETH16                       Percent Other Hispanic</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETHC1                       Percent White &lt; Age 15</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETHC2                       Percent White Age 15 - 59</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETHC3                       Percent White Age 60+</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETHC4                       Percent Black &lt; Age 15</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETHC5                       Percent Black Age 15 - 59</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ETHC6                       Percent Black Age 60+</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC0 - black_vs_white_neighbourhood</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC1 - hispanic_neighbourhood</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC2 - older_white_neighbourhood</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC3 - asian_neighbourhood </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1608,7 +4471,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>PC1 ----&gt; </a:t>
+            <a:t>PC1 ----&gt; foreign_nongerman </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1627,6 +4490,19 @@
             </a:rPr>
             <a:t>PC2</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ----&gt; foreign_german</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:br>
@@ -1642,8 +4518,21 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>PC3</a:t>
-          </a:r>
+            <a:t>PC3-----&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> foreign_european</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-GB" sz="1100" b="0">
@@ -1666,7 +4555,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1838,7 +4727,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1974,7 +4863,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2322,27 +5211,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98364B5-CE2B-4B89-9547-18B6B59D36C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37723720-A4D0-4947-9216-A4295AAB92E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2350,8 +5239,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3648075" y="171450"/>
-          <a:ext cx="4591050" cy="4972050"/>
+          <a:off x="3657600" y="190500"/>
+          <a:ext cx="4591050" cy="4914900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2391,268 +5280,142 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>IC1                         Median Household Income in hundreds</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC2                         Median Family Income in hundreds</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC3                         Average Household Income in hundreds</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC4                         Average Family Income in hundreds</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC5                         Per Capita Income</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC6                         Percent Households w/ Income &lt; $15,000</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC7                         Percent Households w/ Income $15,000 - $24,999</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC8                         Percent Households w/ Income $25,000 - $34,999</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC9                         Percent Households w/ Income $35,000 - $49,999</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC10                        Percent Households w/ Income $50,000 - $74,999</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC11                        Percent Households w/ Income $75,000 - $99,999</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC12                        Percent Households w/ Income $100,000 - $124,999</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC13                        Percent Households w/ Income $125,000 - $149,999</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC14                        Percent Households w/ Income &gt;= $150,000</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC15                        Percent Families w/ Income &lt; $15,000</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC16                        Percent Families w/ Income $15,000 - $24,999</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC17                        Percent Families w/ Income $25,000 - 34,999</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC18                        Percent Families w/ Income $35,000 - $49,999</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC19                        Percent Families w/ Income $50,000 - $74,999</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC20                        Percent Families w/ Income $75,000 - $99,999</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC21                        Percent Families w/ Income $100,000 - $124,999</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC22                        Percent Families w/ Income $125,000 - $149,999</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IC23                        Percent Families w/ Income &gt;= $150,000</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>HHAS1                       Percent Households on Social Security</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>HHAS2                       Percent Households on Public Assistance</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>HHAS3                       Percent Households w/ Interest, Rental or Dividend Income</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>HHAS4                       Percent Persons Below Poverty Level</a:t>
-          </a:r>
+            <a:t>AGE901                      Median Age of Population</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AGE902                      Median Age of Adults 18 or Older</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AGE903                      Median Age of Adults 25 or Older</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AGE904                      Average Age of Population</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AGE905                      Average Age of Adults &gt;= 18</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AGE906                      Average Age of Adults &gt;= 25</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AGE907                      Percent Population Under Age 18</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC0 - black_vs_white_neighbourhood</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC1 - hispanic_neighbourhood</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC2 - older_white_neighbourhood</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC3 - asian_neighbourhood </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2661,7 +5424,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2681,7 +5444,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A10F58-4104-4D9A-AB87-9669852F1847}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B0A144-E7B0-4E00-A269-617FEC418DEC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2730,48 +5493,135 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>MC1                         Percent Persons Move in Since 2005</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>MC2                         Percent Persons in Same House in 2005</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>MC3                         Percent Persons in Different State/Country in 2005</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>PEC1                        Percent Working Outside State of Residence</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>PEC2                        Percent Working Outside County of Residence in State</a:t>
-          </a:r>
+            <a:t>HHN1                        Percent 1 Person Households</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHN2                        Percent 2 Person Households</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHN3                        Percent 3 or More Person Households</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHN4                        Percent 4 or More Person Households</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHN5                        Percent 5 or More Person Households</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHN6                        Percent 6 Person Households</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHP1                        Median Person Per Household</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHP2                        Average Person Per Household</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC0 - multiple_people_household</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC1 - twopeople_household</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC2 - drop.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2780,7 +5630,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2800,7 +5650,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDA3BDEC-B1FC-4B80-8B24-27E16295C95E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE49238-CD34-409E-8F89-E63C66DD13BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2849,128 +5699,84 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>TPE1                        Percent Driving to Work Alone Car/Truck/Van</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>TPE2                        Percent Carpooling Car/Truck/Van)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>TPE3                        Percent Using Public Transportation</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>TPE4                        Percent Using Bus/Trolley</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>TPE5                        Percent Using Railways</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>TPE6                        Percent Using Taxi/Ferry</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>TPE7                        Percent Using Motorcycles</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>TPE8                        Percent Using Other Transportation</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>TPE9                        Percent Working at Home/No Transportation</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>TPE10                       Median Travel Time to Work in minutes</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>TPE11                       Mean Travel Time to Work in minutes</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>TPE12                       Percent Traveling 60+ Minutes to Work</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>TPE13                       Percent Traveling 15 - 59 Minutes to Work</a:t>
-          </a:r>
+            <a:t>MARR1                       Percent Married</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MARR2                       Percent Separated or Divorced</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MARR3                       Percent Widowed</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MARR4                       Percent Never Married</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC0 - not_married</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC1 - widowed_vs_nevermarried</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC2 - drop</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-GB" sz="1100">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
@@ -2984,27 +5790,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4957A047-F0A9-4B95-85E1-4D84EC824D7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D419281-F769-48E2-8C78-A3E412C21881}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3012,8 +5818,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="190500"/>
-          <a:ext cx="4591050" cy="3057525"/>
+          <a:off x="3048000" y="190500"/>
+          <a:ext cx="4591050" cy="2505075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3053,98 +5859,149 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>LFC1                        Percent Adults in Labor Force</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>LFC2                        Percent Adult Males in Labor Force</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>LFC3                        Percent Females in Labor Force</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>LFC4                        Percent Adult Males Employed</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>LFC5                        Percent Adult Females Employed</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>LFC6                        Percent Mothers Employed Married and Single</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>LFC7                        Percent 2 Parent Earner Families</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>LFC8                        Percent Single Mother w/ Child in Labor Force</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>LFC9                        Percent Single Father w/ Child in Labor Force</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>LFC10                       Percent Families w/ Child w/ no Workers</a:t>
-          </a:r>
+            <a:t>DW1                         Percent Single Unit Structure</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DW2                         Percent Detached Single Unit Structure</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DW3                         Percent Duplex Structure</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DW4                         Percent Multi (2+) Unit Structures</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DW5                         Percent 3+ Unit Structures</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DW6                         Percent Housing Units in 5+ Unit Structure</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DW7                         Percent Group Quarters</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DW8                         Percent Institutional Group Quarters</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DW9                         Non-Institutional Group Quarters</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC0 - big_vs_small_unitstructures</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC1 -drop.  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC2 - big_apartments</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3153,27 +6010,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
+        <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDC040C-FF24-4F86-82B8-EF74FC601DEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5E600E5-7C8B-430A-A0C9-651FEC71DDD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3181,8 +6038,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="190500"/>
-          <a:ext cx="4591050" cy="3057525"/>
+          <a:off x="2438400" y="190500"/>
+          <a:ext cx="4591050" cy="4210050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3222,128 +6079,159 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>OCC1                        Percent Professional</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OCC2                        Percent Managerial</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OCC3                        Percent Technical</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OCC4                        Percent Sales</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OCC5                        Percent Clerical/Administrative Support</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OCC6                        Percent Private Household Service Occ.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OCC7                        Percent Protective Service Occ.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OCC8                        Percent Other Service Occ.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OCC9                        Percent Farmers</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OCC10                      Percent Craftsmen, Precision, Repair</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OCC11                      Percent Operatives, Machine</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OCC12                      Percent Transportation</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OCC13                      Percent Laborers, Handlers, Helpers</a:t>
-          </a:r>
+            <a:t>HV1                         Median Home Value in hundreds</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HV2                         Average Home Value in hundreds</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HV3                         Median Contract Rent in hundreds</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HV4                         Average Contract Rent in hundreds</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HVP1                        Percent Home Value &gt;= $200,000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HVP2                        Percent Home Value &gt;= $150,000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HVP3                        Percent Home Value &gt;= $100,000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HVP4                        Percent Home Value &gt;= $75,000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HVP5                        Percent Home Value &gt;= $50,000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HVP6                        Percent Home Value &gt;= $300,000</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC0 - high_value_homes</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - drop. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-GB" sz="1100">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
@@ -3357,27 +6245,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C5B00A-94B6-4359-81C7-9B65BA70489E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A10765-D135-4AD0-9CAF-E28155BB55B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3385,8 +6273,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="190500"/>
-          <a:ext cx="4591050" cy="3190875"/>
+          <a:off x="3657600" y="190500"/>
+          <a:ext cx="4591050" cy="4210050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3426,158 +6314,187 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>EIC1                        Percent Employed in Agriculture</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>EIC2                        Percent Employed in Mining</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>EIC3                        Percent Employed in Construction</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>EIC4                        Percent Employed in Manufacturing</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>EIC5                        Percent Employed in Transportation</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>EIC6                        Percent Employed in Communications</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>EIC7                        Percent Employed in Wholesale Trade</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>EIC8                        Percent Employed in Retail Industry</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>EIC9                        Percent Employed in Finance, Insurance, Real Estate</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>EIC10                       Percent Employed in Business and Repair</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>EIC11                       Percent Employed in Personnal Services</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>EIC12                       Percent Employed in Entertainment and Recreation</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>EIC13                       Percent Employed in Health Services</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>EIC14                       Percent Employed in Educational Services</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>EIC15                       Percent Employed in Other Professional Services</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>EIC16                       Percent Employed in Public Administration</a:t>
-          </a:r>
+            <a:t>HU1                         Percent Owner Occupied Housing Units</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HU2                         Percent Renter Occupied Housing Units</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HU3                         Percent Occupied Housing Units</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HU4                         Percent Vacant Housing Units</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HUR1                        $ 1 or 2 Room Housing Units</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HUR2                        Percent &gt;= 6 Room Housing Units</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RHP1                        Median Number of Rooms per Housing Unit</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RHP2                        Average Number of Rooms per Housing Unit</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RHP3                        Median Number of Persons per Housing Unit</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RHP4                        Average Number of Persons per Room</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HUPA1                       Percent Housing Units w/ 2 thru 9 Units at the Address</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HUPA2                       Percent Housing Units w/ &gt;= 10 Units at the Address</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HUPA3                       Percent Mobile Homes or Trailers</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC0 - high_value_homes</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - drop. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3586,27 +6503,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
+        <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACEABEB6-E11F-4669-933A-ECA72CC5CB65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B8CB7EF-3D1A-4103-91CB-47599FD83D6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3614,8 +6531,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3048000" y="190500"/>
-          <a:ext cx="4591050" cy="2562225"/>
+          <a:off x="2438400" y="190500"/>
+          <a:ext cx="4591050" cy="4210050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3655,205 +6572,184 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>OEDC1                       Percent Employed by Local Government</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OEDC2                       Percent Employed by State Government</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OEDC3                       Percent Employed by Federal Government</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OEDC4                       Percent Self Employed</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OEDC5                       Percent Private Profit Wage or Salaried Worker</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OEDC6                       Percent Private Non-Profit Wage or Salaried Worker</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>OEDC7                       Percent Unpaid Family Workers</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A2D11D6-B513-42F8-897A-B3407A8225C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4267200" y="190500"/>
-          <a:ext cx="4248150" cy="2476499"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>AFC1                        Percent Adults in Active Military Service</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>AFC2                        Percent Males in Active Military Service</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>AFC3                        Percent Females in Active Military Service</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>AFC4                        Percent Adult Veterans Age 16+</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>AFC5                        Percent Male Veterans Age 16+</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>AFC6                        Percent Female Veterans Age 16+</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>VC1                         Percent Vietnam Veterans Age 16+</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>VC2                         Percent Korean Veterans Age 16+</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>VC3                         Percent WW2 Veterans Age 16+</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100"/>
-            <a:t>VC4                         Percent Veterans Serving After May 1995 Only</a:t>
-          </a:r>
+            <a:t>HHD1                        Percent Households w/ Related Children</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHD2                        Percent Households w/ Families</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHD3                        Percent Married Couple Families</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHD4                        Percent Married Couples w/ Related Children</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHD5                        Percent Persons in Family Household</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHD6                        Percent Persons in Non-Family Household</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHD7                        Percent Single Parent Households</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHD8                        Percent Male Householder w/ Child</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHD9                        Percent Female Householder w/ Child</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHD10                       Percent Single Male Householder</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHD11                       Percent Single Female Householder</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HHD12                       Percent Households w/ Non-Family Living Arrangements</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC0 - non_families</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PC1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - single_adult</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4147,9 +7043,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4279,15 +7180,19 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B6" sqref="B6:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4397,10 +7302,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4904,6 +7812,9 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5002,10 +7913,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5212,6 +8126,9 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5446,6 +8363,9 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5866,6 +8786,9 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6220,10 +9143,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6346,10 +9272,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6640,10 +9569,13 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:F2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6874,10 +9806,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="A4:E4"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7273,15 +10208,19 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7736,7 +10675,7 @@
   </sheetPr>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -8156,10 +11095,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8589,15 +11531,19 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D9"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8728,15 +11674,19 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8811,15 +11761,19 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="A8:D9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8950,15 +11904,19 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9084,15 +12042,19 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="A12:E12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9352,15 +12314,19 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C13"/>
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9508,5 +12474,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Files/demographic_pca_revised.xlsx
+++ b/Files/demographic_pca_revised.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="age_c" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="children" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="type_home" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="home_size" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="renters" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -39,12 +40,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008000"/>
+        <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
+        <fgColor rgb="00008000"/>
       </patternFill>
     </fill>
   </fills>
@@ -439,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,165 +454,62 @@
           <t>PC0</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>AGE901</t>
+          <t>HU1</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.9593031298001929</v>
+        <v>-0.983644195227675</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.05632816808287831</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>AGE902</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>0.9658008024771613</v>
+          <t>HU2</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0.9755490739936933</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.1199774869673237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AGE903</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>0.9620763887458672</v>
+          <t>HU3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.1246193684043684</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>-0.9732057683523019</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>AGE904</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>0.9773006828484408</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>AGE905</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>0.9503712881022789</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>AGE906</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>0.9260314500520291</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>AGE907</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>-0.5069655332262138</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>AGEC1</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-0.4411283100711069</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>AGEC2</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>-0.6320664881970349</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>AGEC3</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.4474611931170905</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>AGEC4</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.007148894547665406</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>AGEC5</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>0.6388961912985238</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>AGEC6</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>0.8756482078968143</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>AGEC7</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>0.7861525822836811</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>AC1</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.298048022950722</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>AC2</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>0.5507794837380444</v>
+          <t>HU4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.07353691808547946</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>0.8551381842873151</v>
       </c>
     </row>
   </sheetData>
@@ -625,7 +523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,143 +537,231 @@
           <t>PC0</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PC1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PC2</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>CHIL1</t>
+          <t>RHP1</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.9116091245760625</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-0.1598538971272277</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3698201331816923</v>
+        <v>-0.8356042886635192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>CHIL2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.4079890869391042</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>-0.8775572666608277</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1198631900072249</v>
+          <t>RHP2</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>-0.8774655747175555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>CHIL3</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>-0.6943730912495092</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1640795415352112</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0.6328520609254431</v>
+          <t>RHP3</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>-0.5318636692313112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>CHILC1</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>0.8552973789808975</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.003848154213044684</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2832755056991291</v>
+          <t>RHP4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1574447801547372</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>CHILC2</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>0.6749909955862541</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.3167203541445321</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1962648197699034</v>
+          <t>HUR1</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0.692898262679797</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>CHILC3</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.1034254644425571</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>-0.9282332032429659</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03760437749185491</v>
+          <t>HUR2</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>-0.8983740475670273</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>CHILC4</t>
+          <t>HUPA1</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-0.6143241981189745</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.4131003360474557</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.2362641363265745</v>
+        <v>0.521249608576923</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>CHILC5</t>
+          <t>HUPA2</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-0.4741432674567514</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3696350783901414</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0.7059927062921124</v>
+        <v>0.7782956444327351</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>HUPA3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3.789041446907747e-05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>HUPA4</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.0420917210655305</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>HUPA5</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.3763308582845528</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>HUPA6</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>0.8168407840037862</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>HUPA4</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.195364981788926</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>HUPA5</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.05449259167647807</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>HUPA6</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2323122531831315</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>HUPA7</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.3875274029586749</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RP1</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0.9059858952567866</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RP2</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0.9789327703762657</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RP3</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0.9531020726128593</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RP4</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0.8189973838414516</v>
       </c>
     </row>
   </sheetData>

--- a/Files/demographic_pca_revised.xlsx
+++ b/Files/demographic_pca_revised.xlsx
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.983644195227675</v>
+        <v>-0.983644195227673</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.05632816808287831</v>
+        <v>-0.05632816808287096</v>
       </c>
     </row>
     <row r="3">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>0.9755490739936933</v>
+        <v>0.9755490739936922</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1199774869673237</v>
+        <v>-0.1199774869673195</v>
       </c>
     </row>
     <row r="4">
@@ -493,10 +493,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1246193684043684</v>
+        <v>-0.12461936840437</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.9732057683523019</v>
+        <v>-0.9732057683523234</v>
       </c>
     </row>
     <row r="5">
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07353691808547946</v>
+        <v>0.07353691808547876</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>0.8551381842873151</v>
+        <v>0.8551381842873219</v>
       </c>
     </row>
   </sheetData>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.8356042886635192</v>
+        <v>-0.8356042886635195</v>
       </c>
     </row>
     <row r="3">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.8774655747175555</v>
+        <v>-0.8774655747175562</v>
       </c>
     </row>
     <row r="4">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.5318636692313112</v>
+        <v>-0.5318636692313115</v>
       </c>
     </row>
     <row r="5">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1574447801547372</v>
+        <v>0.1574447801547377</v>
       </c>
     </row>
     <row r="6">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0.692898262679797</v>
+        <v>0.6928982626797969</v>
       </c>
     </row>
     <row r="7">
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.8983740475670273</v>
+        <v>-0.898374047567028</v>
       </c>
     </row>
     <row r="8">
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.521249608576923</v>
+        <v>0.5212496085769234</v>
       </c>
     </row>
     <row r="9">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0.7782956444327351</v>
+        <v>0.7782956444327345</v>
       </c>
     </row>
     <row r="10">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.789041446907747e-05</v>
+        <v>3.789041446940304e-05</v>
       </c>
     </row>
     <row r="11">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0420917210655305</v>
+        <v>-0.04209172106552968</v>
       </c>
     </row>
     <row r="12">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3763308582845528</v>
+        <v>0.3763308582845534</v>
       </c>
     </row>
     <row r="13">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.8168407840037862</v>
+        <v>0.8168407840037863</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.195364981788926</v>
+        <v>-0.1953649817889261</v>
       </c>
     </row>
     <row r="3">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.05449259167647807</v>
+        <v>-0.05449259167647882</v>
       </c>
     </row>
     <row r="4">
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2323122531831315</v>
+        <v>0.2323122531831293</v>
       </c>
     </row>
     <row r="5">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3875274029586749</v>
+        <v>-0.3875274029586745</v>
       </c>
     </row>
     <row r="6">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0.9059858952567866</v>
+        <v>0.905985895256788</v>
       </c>
     </row>
     <row r="7">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>0.9789327703762657</v>
+        <v>0.9789327703762649</v>
       </c>
     </row>
     <row r="8">
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.9531020726128593</v>
+        <v>0.9531020726128591</v>
       </c>
     </row>
     <row r="9">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0.8189973838414516</v>
+        <v>0.8189973838414512</v>
       </c>
     </row>
   </sheetData>
